--- a/classfiers/nano/elm/smote/nano_elm__smote_results.xlsx
+++ b/classfiers/nano/elm/smote/nano_elm__smote_results.xlsx
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3609904526712676</v>
+        <v>0.3370290606471511</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3664918003879386</v>
+        <v>0.377566844919786</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3759724186704385</v>
+        <v>0.3694885361552028</v>
       </c>
     </row>
     <row r="5">
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3560846560846561</v>
+        <v>0.3346153846153846</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.356047813722005</v>
+        <v>0.34315911044263</v>
       </c>
     </row>
     <row r="7">
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3631174283072611</v>
+        <v>0.3523717873560309</v>
       </c>
     </row>
   </sheetData>
